--- a/utility/Test Schedule.xlsx
+++ b/utility/Test Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pha12\Documents\學業\數位系統設計\DSD_project\utility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nycu1-my.sharepoint.com/personal/pha123661_cs07_m365_nycu_edu_tw/Documents/文件/學業/數位系統設計/DSD_project/utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4F21D7-7A84-4353-A616-80A4B294DDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{BD4F21D7-7A84-4353-A616-80A4B294DDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEF6EFD7-BB4A-4003-9526-DF7AEC44203A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,35 +52,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Player1 dart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player2 dart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>測試備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Triple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Game Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player 1 BUST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player 2 BUST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Triple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player1 dart (score)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player2 dart (score)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,14 +415,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -429,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -438,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -447,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -458,23 +461,23 @@
         <v>501</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -543,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -590,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1033,7 +1036,7 @@
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1079,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1103,7 +1106,7 @@
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
